--- a/db_data_insert/测试数据/周五患者处方.xlsx
+++ b/db_data_insert/测试数据/周五患者处方.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a桌面\学习\大三下\信息系统分析与设计\信息系统\test数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BUAA\Courses\经管课程\信息系统分析与设计\MIS_Project\HIS_void\db_data_insert\测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E89C4E9-0458-4768-B71D-FEDD3F395D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D48550-1429-45D4-BECA-FEBFE112FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>就诊号</t>
   </si>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>每日三次，注意血压变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号记录编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,28 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -419,18 +425,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>44361.541666666664</v>
+      </c>
+      <c r="C2">
+        <v>142</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -439,18 +451,24 @@
         <v>6</v>
       </c>
       <c r="F2">
+        <v>71</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>44361.333333333336</v>
+      </c>
+      <c r="C3">
+        <v>143</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -459,18 +477,24 @@
         <v>7</v>
       </c>
       <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>44359.541666666664</v>
+      </c>
+      <c r="C4">
+        <v>144</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -479,18 +503,24 @@
         <v>6</v>
       </c>
       <c r="F4">
+        <v>73</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>44359.541666666664</v>
+      </c>
+      <c r="C5">
+        <v>145</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -499,11 +529,21 @@
         <v>8</v>
       </c>
       <c r="F5">
+        <v>74</v>
+      </c>
+      <c r="G5">
         <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>